--- a/backend/fms_core/static/submission_templates/Sample_submission_v3_2_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_submission_v3_2_0.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Naming Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">- Only use the following characters for Sample name and Barcode: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
+    <t xml:space="preserve">- Only use the following characters for Sample name: a-z, A-Z, 0-9, period (.), dash (-), underscore ( _ )</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -1675,7 +1675,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.33"/>
@@ -17464,10 +17464,6 @@
       <formula1>Index!$E$2:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T8:T391" type="list">
-      <formula1>Index!$F$2:$F$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8:B391" type="list">
       <formula1>Index!$C$2:$C$12</formula1>
       <formula2>0</formula2>
@@ -17482,6 +17478,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" prompt="Coordinate" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L8:L391" type="list">
       <formula1>IF(OR($H8="Tube",$H8="96-well plate"),Index!$A$2:$A$97,IF($H8="384-well plate",Index!$B$2:$B$385,""))</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T8:T391" type="none">
+      <formula1>Index!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -17507,7 +17507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.38"/>
